--- a/secure/26e-Paul.xlsx
+++ b/secure/26e-Paul.xlsx
@@ -28,13 +28,13 @@
     <t>c</t>
   </si>
   <si>
-    <t>26e-Paul-157420</t>
+    <t>26e-Paul-653870</t>
   </si>
   <si>
-    <t>26e-Paul-720968</t>
+    <t>26e-Paul-616188</t>
   </si>
   <si>
-    <t>26e-Paul-869248</t>
+    <t>26e-Paul-114801</t>
   </si>
 </sst>
 </file>
@@ -66,7 +66,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F16bf63e"/>
+        <fgColor rgb="F83c9d05"/>
       </patternFill>
     </fill>
   </fills>
@@ -427,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:WN503"/>
+  <dimension ref="A1:SM503"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -493,11 +493,14 @@
       </c>
       <c r="M7" s="4"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:507" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>-0.976</v>
       </c>
       <c r="M8" s="4"/>
+      <c r="SM8" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1045,14 +1048,11 @@
       </c>
       <c r="M99" s="4"/>
     </row>
-    <row r="100" spans="1:612" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>-0.608</v>
       </c>
       <c r="M100" s="4"/>
-      <c r="WN100" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
@@ -2008,11 +2008,14 @@
       </c>
       <c r="M259" s="4"/>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:123" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>0.032</v>
       </c>
       <c r="M260" s="4"/>
+      <c r="DS260" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
@@ -2224,14 +2227,11 @@
       </c>
       <c r="M295" s="4"/>
     </row>
-    <row r="296" spans="1:463" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>0.176</v>
       </c>
       <c r="M296" s="4"/>
-      <c r="QU296" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
@@ -2287,11 +2287,14 @@
       </c>
       <c r="M305" s="4"/>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:98" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>0.216</v>
       </c>
       <c r="M306" s="4"/>
+      <c r="CT306" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
@@ -2953,14 +2956,11 @@
       </c>
       <c r="M416" s="4"/>
     </row>
-    <row r="417" spans="1:443" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>0.66</v>
       </c>
       <c r="M417" s="4"/>
-      <c r="QA417" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
